--- a/misc/upload/books/books.xlsx
+++ b/misc/upload/books/books.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yassya\YandexDisk\Ясечка\ДЛЯ САЙТА\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="12" windowWidth="20952" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>series</t>
   </si>
@@ -60,24 +66,16 @@
     <t>pb_price</t>
   </si>
   <si>
-    <t xml:space="preserve">Our Emotions are Our Friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Joy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Joy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Joy and teach your child to savor moments of happiness!
-Understanding the emotion of joy is crucial for children. This knowledge helps them better understand and express their feelings. Our beautifully illustrated books will be your trusted guides on the journey to emotional harmony! Give your child the gift of understanding emotions from the very beginning of life.
-In My Friend Joy, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-Join the kind witch Ida and her friend Joy as they venture to a mysterious castle. Who will they meet along the way? What secrets lie behind the castle walls? You’ll find out soon!
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Joy is the first book in the 15-part series Our Emotions are Our Friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yassya Lil</t>
+    <t>Our Emotions are Our Friends</t>
+  </si>
+  <si>
+    <t>Children`s Joy</t>
+  </si>
+  <si>
+    <t>My Friend Joy</t>
+  </si>
+  <si>
+    <t>Yassya Lil</t>
   </si>
   <si>
     <t>MyFriendJoy.png</t>
@@ -89,287 +87,292 @@
     <t>https://…</t>
   </si>
   <si>
-    <t xml:space="preserve">Children`s Sadness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Sadness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Sadness and help your child understand and embrace grief!
-Does your little one often feel sad? Unsure how to help them understand their emotions? Looking for effective ways to support them? Our illustrated books will be your reliable companions on the path to emotional harmony! Give your child the tools to understand emotions from the start of life.
-In My Friend Sadness, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-Follow the kind witch Ida and her friend Sadness as they explore the depths of his feelings and venture into a forest. Together, they encounter new friends and uncover the roots of sadness. Will Sadness learn to understand himself and help others? What unexpected discoveries await them along the way?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Sadness is the second book in the 15-part series Our Emotions are Our Friends.
+    <t>Children`s Sadness</t>
+  </si>
+  <si>
+    <t>My Friend Sadness</t>
+  </si>
+  <si>
+    <t>MyFriendSadness.png</t>
+  </si>
+  <si>
+    <t>Children`s Anger</t>
+  </si>
+  <si>
+    <t>My Friend Anger</t>
+  </si>
+  <si>
+    <t>MyFriendAnger.png</t>
+  </si>
+  <si>
+    <t>Children`s Fear</t>
+  </si>
+  <si>
+    <t>My Friend Fear</t>
+  </si>
+  <si>
+    <t>MyFriendFear.png</t>
+  </si>
+  <si>
+    <t>Children`s Envy</t>
+  </si>
+  <si>
+    <t>My Friend Envy</t>
+  </si>
+  <si>
+    <t>MyFriendEnvy.png</t>
+  </si>
+  <si>
+    <t>Children`s Love</t>
+  </si>
+  <si>
+    <t>My Friend Love</t>
+  </si>
+  <si>
+    <t>MyFriendLove.png</t>
+  </si>
+  <si>
+    <t>Children`s Jealousy</t>
+  </si>
+  <si>
+    <t>My Friend Jealousy</t>
+  </si>
+  <si>
+    <t>MyFriendJealousy.png</t>
+  </si>
+  <si>
+    <t>Children`s Resentment</t>
+  </si>
+  <si>
+    <t>My Friend Resentment</t>
+  </si>
+  <si>
+    <t>MyFriendResentment.png</t>
+  </si>
+  <si>
+    <t>Children`s Shame</t>
+  </si>
+  <si>
+    <t>My Friend Shame</t>
+  </si>
+  <si>
+    <t>MyFriendShame.png</t>
+  </si>
+  <si>
+    <t>Children`s Guilt</t>
+  </si>
+  <si>
+    <t>My Friend Guilt</t>
+  </si>
+  <si>
+    <t>MyFriendGuilt.png</t>
+  </si>
+  <si>
+    <t>Children`s Loneliness</t>
+  </si>
+  <si>
+    <t>My Friend Loneliness</t>
+  </si>
+  <si>
+    <t>MyFriendLoneliness.png</t>
+  </si>
+  <si>
+    <t>Children`s Shyness</t>
+  </si>
+  <si>
+    <t>My Friend Shyness</t>
+  </si>
+  <si>
+    <t>MyFriendShyness.png</t>
+  </si>
+  <si>
+    <t>Children`s Indifference</t>
+  </si>
+  <si>
+    <t>My Friend Indifference</t>
+  </si>
+  <si>
+    <t>MyFriendIndifference.png</t>
+  </si>
+  <si>
+    <t>Children`s Helplessness</t>
+  </si>
+  <si>
+    <t>My Friend Helplessness</t>
+  </si>
+  <si>
+    <t>MyFriendHelplessness.png</t>
+  </si>
+  <si>
+    <t>Children`s Boredom</t>
+  </si>
+  <si>
+    <t>My Friend Boredom</t>
+  </si>
+  <si>
+    <t>MyFriendBoredom.png</t>
+  </si>
+  <si>
+    <t>Open the world of Joy and teach your child to savor moments of happiness!
+Understanding the emotion of joy is important for a child. This knowledge helps them better understand and express their feelings. Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the opportunity to understand emotions from the very beginning of life!
+The book My Friend Joy features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Joy embark on a journey to a mysterious castle. Who will they meet along the way? And what secrets lie behind the castle walls? You will find out soon!
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Joy is the first of fifteen books in the series Our Emotions are Our Friends.
+The book includes a practical guide for parents and three unique exercises developed from my 10 years of experience working as a child psychologist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the world of Sadness and help your child understand and embrace grief.
+Does your little one often feel sad? Unsure how to help them understand their emotions? Looking for effective ways to provide support? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Sadness features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Sadness explore the depths of his feelings and set off into the forest. Along the way, they encounter new acquaintances and reasons for sadness... Will Sadness be able to understand himself and help others? And what unexpected discoveries await them on their journey?
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Sadness is the second of fifteen books in the series Our Emotions are Our Friends.
 </t>
   </si>
   <si>
-    <t>MyFriendSadness.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Anger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Anger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Anger and teach your child to express it safely!
-Does your child frequently experience angry outbursts? Struggling to explain emotions to them? We have a solution! Our illustrated books will be your trusted guides on the journey to emotional harmony. Give your little one the tools to understand emotions from the very start of life.
-In My Friend Anger, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-Join the kind witch Ida and her always-angry friend Anger as they embark on a small adventure. Along the way, they meet an angry dragon ready to set the forest ablaze over something seemingly trivial… But why? That’s for you to discover! Will the friends help the dragon? Will Anger understand the reason behind his constant frustration?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Anger is the third book in the 15-part series Our Emotions are Our Friends.</t>
-  </si>
-  <si>
-    <t>MyFriendAnger.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Fear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Fear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Fear and help your child feel secure!
-Does your child feel anxious about meeting new people? Are they afraid of the dark? Do you want to help them better understand their emotions? Our illustrated books will be your reliable guides on the journey to emotional harmony! Give your little one the gift of emotional understanding from the very beginning.
-In My Friend Fear, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-Follow the kind witch Ida and her friend Fear as they set out on an adventure to explore the depths of his fears. Together, they face various challenges, each step becoming a test. Can Ida help Fear overcome his inner barriers? What surprising discoveries will they encounter on their journey?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Fear is the fourth book in the 15-part series Our Emotions are Our Friends.</t>
-  </si>
-  <si>
-    <t>MyFriendFear.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Envy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Envy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Envy and teach your child to recognize their own worth!
-Does your child envy others’ toys or achievements? Is envy causing conflicts with their peers? We have a solution! Our illustrated books will be your trusted guides on the journey to emotional harmony! Give your child the tools to understand emotions from the very beginning of life.
-In My Friend Envy, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-The kind witch Ida notices that her friend Envy is angry at a fast dog and tries to imitate it. Ida quickly realizes that Envy is consumed by jealousy, though he’s not ready to admit it. Can the friends help Envy understand what he truly wants? Will Envy discover his unique talents? You’ll find out soon!
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Envy is the fifth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendEnvy.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Love and teach your child to care and show warmth!
-Are you searching for a way to explain love to your child? Do you want your little one to learn how to build kind and caring relationships? Our beautifully illustrated books will be your trusted guides on the journey to emotional harmony! Give your child the gift of understanding emotions from the very beginning of life.
-In My Friend Love, you’ll find a practical guide for parents and a unique, author-designed game, created based on my 10 years of experience as a child psychologist.
-Join the kind witch Ida and her friend Love as they embark on an enchanting adventure to uncover the secret of love. Along the way, they meet a couple in love, a magician who adores his craft, and a sunset that inspires warm feelings… But what truly defines love?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Love is the sixth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendLove.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Jealousy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Jealousy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Jealousy and help your child feel loved and valued!
-Does your child struggle with jealousy toward siblings? Does jealousy make them feel dissatisfied with themselves? Our beautifully illustrated books will be your trusted guides on the journey to emotional harmony! Give your child the gift of understanding emotions from the very beginning of life.
-In My Friend Jealousy, you’ll find a practical guide for parents and a unique, author-designed game, created based on my 10 years of experience as a child psychologist.
-Join the kind witch Ida and her friend Jealousy as they cross paths with Joy. But Jealousy suddenly snaps at their mutual friend, leaving everyone upset. Ida quickly realizes Jealousy is, well, jealous! What will it take to mend the friendship? Can Ida find the key to helping Jealousy resolve their inner conflict?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Jealousy is the seventh book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendJealousy.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Resentment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Resentment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Resentment and teach your child to find words in difficult moments!
-Does your child’s resentment create difficulties in connecting with others, leading to isolation and conflict? Are you looking for ways to help them express emotions healthily? Our beautifully illustrated books will be your trusted guides on the journey to emotional harmony! Give your child the gift of understanding emotions from the very beginning of life.
-In My Friend Resentment, you’ll find a practical guide for parents and a unique, author-designed game, created based on my 10 years of experience as a child psychologist.
-Join the kind witch Ida and her friend Resentment as they journey to a mysterious cabin to seek wisdom from an old sorceress. But tension lingers between them—Resentment seems to avoid conversation entirely… What’s troubling Resentment? Can the friends restore harmony and continue their adventure together?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Resentment is the eighth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendResentment.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Shame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Shame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Shame and teach your child to accept themselves as they are!
-Does your child feel ashamed of themselves or fear being ridiculed? Are you struggling to explain emotions to your child? We’ve got the solution! Our beautifully illustrated books will be your trusted guides on the journey to emotional harmony! Give your child the gift of emotional understanding from the very beginning of life.
-In My Friend Shame, you’ll find a practical guide for parents and a unique, author-designed game, created based on my 10 years of experience as a child psychologist.
-When Ida rescues her friend Shame’s toy from the bottom of a lake, she’s surprised to see Shame grow even more withdrawn. Now, Shame feels completely disappointed in his own abilities. What will Ida do next? Can Shame learn to accept his imperfections and feel proud of who he is?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Shame is the tenth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendShame.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Guilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Guilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Guilt and teach your child to acknowledge mistakes without self-judgment!
-Does your child doubt their abilities or feel overwhelmed by guilt? Is guilt causing stress and anxiety in their life? Our beautifully illustrated books will be your trusted guides on the journey to emotional harmony! Give your child the tools to understand emotions from the start of life.
-In My Friend Guilt, you’ll find a practical guide for parents and a unique, author-designed game, created based on my 10 years of experience as a child psychologist.
-The kind witch Ida notices her friend Guilt has become overly sensitive to even the smallest mistakes, apologizing excessively. What has caused this shift? Determined to help, Ida sets out to help Guilt find balance and free himself from the heavy burden of remorse.
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Guilt is the ninth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendGuilt.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Loneliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Loneliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Loneliness and help your child build warm relationships with themselves and others!
-Does your child fear being alone? Struggling to explain emotions? We have a solution! Our illustrated books will be your trusted companions on the journey to emotional harmony. Give your little one the tools to understand emotions from the very start of life.
-In My Friend Loneliness, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-The kind witch Ida decides to befriend the withdrawn and reserved Loneliness. He always seems sad and doesn’t even know what he truly wants… Why does Loneliness avoid everyone? Will Ida be able to help him open his heart? That’s for you to discover!
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Loneliness is the eleventh book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendLoneliness.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Shyness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Shyness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Shyness and teach your child to feel confident!
-Does your child avoid social interactions and new experiences? Shyness can hold children back from trying new things and learning from mistakes, limiting their personal and intellectual growth. Our illustrated books will be your trusted companions on the journey to emotional harmony!
-In My Friend Shyness, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-While walking with her friend Shyness, the kind witch Ida suggests they join Joy. But Shyness, blushing bright red, hides his face in his hands—he’s terribly shy around new people. Meanwhile, Joy is already on his way…
-Can Ida help Shyness feel safe? And will Joy and Shyness find common ground?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Shyness is the fourteenth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendShyness.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Indifference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Indifference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Indifference and teach your child to notice the beauty around them!
-Indifference can hinder curiosity, creative thinking, and problem-solving skills. It’s important to nurture emotional intelligence from early childhood! Our illustrated books will be your reliable companions on the journey to emotional harmony. Give your little one the tools to understand emotions from the very start of life.
-In My Friend Indifference, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-The kind witch Ida tries to engage her friend Indifference in different activities, but nothing seems to work—until they decide to explore a mysterious cave. Inside, they encounter… But that’s for you to find out!
-Will Ida help Indifference awaken his true feelings and discover what truly matters to him? What will the two friends find on their journey into the cave?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Indifference is the twelfth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendIndifference.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Helplessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Helplessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Helplessness and teach your child to believe in their own strength!
-Helplessness can prevent a child from developing essential skills and confidence, making them doubt their own abilities. To support your child, it’s crucial to nurture emotional intelligence from an early age! Our illustrated books will be your trusted companions on the journey to emotional harmony.
-In My Friend Helplessness, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-While picking mushrooms in the forest, the kind witch Ida meets her friend Helplessness and invites him to join. But there’s a problem—Helplessness wants to, but… he just can’t. He once tried picking mushrooms and got sick from eating the wrong ones.
-Can they work together to overcome the fears and obstacles that stand in the way of their goal?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Helplessness is the thirteenth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendHelplessness.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children`s Boredom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Friend Boredom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the world of Boredom and teach your child to find inspiration in every day!
-Constant boredom can lead to apathy, dissatisfaction, and even sadness. Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the tools to understand emotions from the very start of life.
-In My Friend Boredom, you’ll find a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-One day, the kind witch Ida stumbles upon her friend Boredom, wandering from tree to tree, trapped in a never-ending state of dullness. Without hesitation, she offers him a special game: to find four places where boredom disappears.
-Can Boredom overcome his state and turn monotony into an exciting adventure?
-Add the book to your cart and help your child achieve emotional harmony today!
-My Friend Boredom is the fifteenth book in the 15-part series Our Emotions are Our Friends.
-</t>
-  </si>
-  <si>
-    <t>MyFriendBoredom.png</t>
+    <t>Open the world of Anger and teach your child to express it safely.
+Does your child often have angry outbursts? Struggling to explain emotions? We have the solution! Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Anger features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her constantly angry friend Anger set off on a small journey, where they meet an angry dragon ready to burn down the forest over something simple... But what exactly? You will find out soon!
+Can the friends help the dragon? Will Anger understand why he is always so mad?
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Anger is the third of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Jealousy and help your child feel loved and valued.
+Does your child feel jealous of siblings? Does jealousy make them unhappy with themselves? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Jealousy features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Jealousy meet Joy. Suddenly, Jealousy speaks rudely to their mutual friend... Ida immediately realizes that Jealousy is feeling envious! What will lead to their reconciliation? Can Ida find the key to resolving Jealousy’s problem?
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Jealousy is the seventh of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Love and teach your child to care and show warmth.
+Are you looking for a way to explain love to your child? Do you want your little one to learn how to build kind and caring relationships? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Love features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Love set off on an exciting adventure to uncover the mystery of love. They meet a couple in love, a magician who passionately loves his work, and a sunset that inspires warm feelings… But what is love, really?
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Love is the sixth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Envy and teach your child to recognize their own worth.
+Does your child envy others' toys or achievements? Does envy lead to conflicts with other children? We have the solution! Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Envy features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida notices that her friend Envy is angry at a fast dog and tries to imitate it. Ida immediately understands that Envy is overwhelmed with jealousy, but he is not ready to admit it. Can the friends help Envy understand what he truly wants? And will Envy discover his unique ability? You will find out soon!
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Envy is the fifth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Fear and help your child feel secure.
+Does your child feel anxious when meeting new people? Afraid of the dark? Do you want to help them better understand their emotions? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Fear features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Fear set off on a journey to explore the depths of his fears. Along the way, they face various situations where each step is a challenge... Can Ida help Fear overcome his inner barriers? And what unexpected discoveries await them?
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Fear is the fourth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Resentment and teach your child to find words in difficult moments.
+Does your child struggle to connect with others due to resentment, leading to isolation and conflicts? Looking for ways to teach your child healthy emotional expression?
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Resentment includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Resentment set off on a journey to a mysterious hut, hoping to meet an old sorceress. But tension hangs between them—Resentment seems to be avoiding conversation on purpose... What happened to Resentment? Will the friends be able to restore harmony and continue their adventure?
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Resentment is the eighth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Guilt and teach your child to acknowledge mistakes without self-judgment.
+Does your child doubt themselves and their abilities because of guilt? Does guilt cause them stress and anxiety?
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Guilt includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida noticed that her friend Guilt had recently become extremely sensitive to even the smallest mistakes, and his apologies seemed overly frequent. What led Guilt to such behavior? Seeking answers, Ida decided to help him find inner harmony and free himself from the burden of guilt.
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Guilt is the ninth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Shame and teach your child to accept themselves as they are.
+Does your child feel ashamed of themselves and fear being laughed at? Do you struggle to explain emotions to your child? We have a solution!
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Shame includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida helped her friend Shame retrieve his toy from the bottom of the lake. But there was a problem—Shame grew even sadder. Now he was completely discouraged about his abilities. What will Ida do next? And will Shame finally learn to accept his flaws and feel proud of who he is?
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Shame is the tenth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Loneliness and help your child build warm relationships with themselves and others.
+Is your child afraid of being alone? Do you struggle to explain emotions? We have a solution!
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Loneliness includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida decides to befriend the reserved and withdrawn Loneliness. He always seems sad and unsure of what he truly needs… Why does Loneliness avoid everyone? Will Ida be able to help him open his heart? You'll find out soon!
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Loneliness is the eleventh of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Indifference and teach your child to notice the beauty around them.
+Indifference hinders curiosity, creative thinking, and problem-solving skills. It's essential to nurture emotional intelligence from early childhood!
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Indifference includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida tried to engage her friend Indifference in different activities, but nothing worked—until they decided to explore a mysterious cave. Inside, they encountered... But you'll find out soon!
+Can Ida awaken Indifference's true emotions and help him discover what really matters? How will their adventure in the cave unfold?
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Indifference is the twelfth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Helplessness and teach your child to believe in their own strength.
+Helplessness prevents children from developing skills and confidence, making them feel incapable of handling challenges. To support your child, it's crucial to foster emotional intelligence from an early age!
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Helplessness includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida was gathering mushrooms in the forest when she met her friend Helplessness and invited him to join her. But there was a problem—Helplessness wanted to, but… he couldn't. He had gathered mushrooms before and had once gotten severely poisoned due to inexperience. Can they overcome obstacles and fears together to reach their goal?
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Helplessness is the thirteenth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Shyness and teach your child to feel confident.
+Does your child avoid social interactions and making new friends? Shyness can prevent children from trying new things and learning from mistakes, limiting their personal and intellectual growth.
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Shyness includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+While walking with her friend Shyness, the kind witch Ida suggested they join Joy. But Shyness, blushing deeply, hid his face in his hands—new acquaintances made him terribly nervous. Meanwhile, Joy was already approaching…
+Will Ida help Shyness feel safe? And will Joy and Shyness find common ground?
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Shyness is the fourteenth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Boredom and teach your child to find inspiration in every day.
+Constant boredom can lead to apathy, dissatisfaction, and even depression.
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Boredom includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Boredom stumbled upon her friend Boredom, wandering from tree to tree, engulfed in a deep sense of monotony. Without hesitation, she invited him to play a unique game—finding four places where boredom disappears. Will Boredom overcome his state and turn dullness into an exciting adventure?
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Boredom is the fifteenth of fifteen books in the series Our Emotions are Our Friends.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,14 +391,20 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -410,7 +419,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -422,44 +431,47 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,295 +485,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -964,34 +696,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="56" workbookViewId="0">
-      <selection activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="20.6640625"/>
-    <col customWidth="1" min="2" max="2" style="1" width="20.44140625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="21.109375"/>
-    <col customWidth="1" min="4" max="4" style="1" width="71.5546875"/>
-    <col customWidth="1" min="5" max="5" style="1" width="24.44140625"/>
-    <col customWidth="1" min="6" max="6" style="1" width="11.44140625"/>
-    <col customWidth="1" min="7" max="7" style="1" width="28.6640625"/>
-    <col customWidth="1" min="8" max="9" style="1" width="11.88671875"/>
-    <col customWidth="1" min="10" max="10" style="1" width="12"/>
-    <col customWidth="1" min="11" max="11" style="1" width="11.6640625"/>
-    <col customWidth="1" min="12" max="12" style="1" width="20.33203125"/>
-    <col customWidth="1" min="13" max="13" style="1" width="13.109375"/>
-    <col min="14" max="16384" style="1" width="9.109375"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="201.59999999999999" customHeight="1">
+    <row r="2" spans="1:15" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1048,23 +782,23 @@
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
+      <c r="D2" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="7">
         <v>45597</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="8">
         <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="6">
         <v>3</v>
@@ -1073,45 +807,45 @@
         <v>6</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O2" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="3" ht="247.80000000000001" customHeight="1">
+    <row r="3" spans="1:15" ht="247.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="7">
         <v>45627</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="8">
         <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="6">
         <v>3</v>
@@ -1120,45 +854,45 @@
         <v>6</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O3" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="4" ht="249.59999999999999" customHeight="1">
+    <row r="4" spans="1:15" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E4" s="7">
         <v>45658</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="8">
         <v>35</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="6">
         <v>3</v>
@@ -1167,45 +901,45 @@
         <v>6</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O4" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="5" ht="199.5">
+    <row r="5" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="E5" s="7">
         <v>45689</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="8">
         <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="6">
         <v>3</v>
@@ -1214,45 +948,45 @@
         <v>6</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O5" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="6" ht="199.5">
+    <row r="6" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="E6" s="7">
         <v>45717</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8">
         <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
@@ -1261,45 +995,45 @@
         <v>6</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O6" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="7" ht="213.75">
+    <row r="7" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="7">
         <v>45748</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H7" s="8">
         <v>35</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="6">
         <v>3</v>
@@ -1308,45 +1042,45 @@
         <v>6</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O7" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="8" ht="228">
+    <row r="8" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="7">
         <v>45778</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H8" s="8">
         <v>35</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="6">
         <v>3</v>
@@ -1355,45 +1089,45 @@
         <v>6</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O8" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="9" ht="256.5">
+    <row r="9" spans="1:15" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="E9" s="7">
         <v>45809</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H9" s="8">
         <v>35</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="6">
         <v>3</v>
@@ -1402,45 +1136,45 @@
         <v>6</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O9" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="10" ht="228">
+    <row r="10" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E10" s="7">
         <v>45870</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H10" s="8">
         <v>35</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="6">
         <v>3</v>
@@ -1449,45 +1183,45 @@
         <v>6</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O10" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="11" ht="228">
+    <row r="11" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="E11" s="7">
         <v>45839</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H11" s="8">
         <v>35</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="6">
         <v>3</v>
@@ -1496,45 +1230,45 @@
         <v>6</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O11" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="12" ht="228">
+    <row r="12" spans="1:15" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="E12" s="7">
         <v>45901</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H12" s="8">
         <v>35</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="6">
         <v>3</v>
@@ -1543,45 +1277,45 @@
         <v>6</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O12" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="13" ht="213.75">
+    <row r="13" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="7">
         <v>45992</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H13" s="8">
         <v>35</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="6">
         <v>3</v>
@@ -1590,45 +1324,45 @@
         <v>6</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O13" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="14" ht="242.25">
+    <row r="14" spans="1:15" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="E14" s="7">
         <v>45931</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H14" s="8">
         <v>35</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="6">
         <v>3</v>
@@ -1637,45 +1371,45 @@
         <v>6</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O14" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="15" ht="256.5">
+    <row r="15" spans="1:15" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="7">
         <v>45962</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H15" s="8">
         <v>35</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="6">
         <v>3</v>
@@ -1684,45 +1418,45 @@
         <v>6</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O15" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
-    <row r="16" ht="213.75">
+    <row r="16" spans="1:15" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="7">
         <v>46023</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H16" s="8">
         <v>35</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="6">
         <v>3</v>
@@ -1731,54 +1465,52 @@
         <v>6</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
       <c r="O16" s="10">
-        <v>9.9900000000000002</v>
+        <v>9.99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2"/>
-    <hyperlink r:id="rId1" ref="M2"/>
-    <hyperlink r:id="rId1" ref="L3"/>
-    <hyperlink r:id="rId1" ref="M3"/>
-    <hyperlink r:id="rId1" ref="L4"/>
-    <hyperlink r:id="rId1" ref="M4"/>
-    <hyperlink r:id="rId1" ref="L5"/>
-    <hyperlink r:id="rId1" ref="M5"/>
-    <hyperlink r:id="rId1" ref="L6"/>
-    <hyperlink r:id="rId1" ref="M6"/>
-    <hyperlink r:id="rId1" ref="L7"/>
-    <hyperlink r:id="rId1" ref="M7"/>
-    <hyperlink r:id="rId1" ref="L8"/>
-    <hyperlink r:id="rId1" ref="M8"/>
-    <hyperlink r:id="rId1" ref="L9"/>
-    <hyperlink r:id="rId1" ref="M9"/>
-    <hyperlink r:id="rId1" ref="L10"/>
-    <hyperlink r:id="rId1" ref="M10"/>
-    <hyperlink r:id="rId1" ref="L11"/>
-    <hyperlink r:id="rId1" ref="M11"/>
-    <hyperlink r:id="rId1" ref="L12"/>
-    <hyperlink r:id="rId1" ref="M12"/>
-    <hyperlink r:id="rId1" ref="L13"/>
-    <hyperlink r:id="rId1" ref="M13"/>
-    <hyperlink r:id="rId1" ref="L14"/>
-    <hyperlink r:id="rId1" ref="M14"/>
-    <hyperlink r:id="rId1" ref="L15"/>
-    <hyperlink r:id="rId1" ref="M15"/>
-    <hyperlink r:id="rId1" ref="L16"/>
-    <hyperlink r:id="rId1" ref="M16"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="L5" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8"/>
+    <hyperlink ref="L6" r:id="rId9"/>
+    <hyperlink ref="M6" r:id="rId10"/>
+    <hyperlink ref="L7" r:id="rId11"/>
+    <hyperlink ref="M7" r:id="rId12"/>
+    <hyperlink ref="L8" r:id="rId13"/>
+    <hyperlink ref="M8" r:id="rId14"/>
+    <hyperlink ref="L9" r:id="rId15"/>
+    <hyperlink ref="M9" r:id="rId16"/>
+    <hyperlink ref="L10" r:id="rId17"/>
+    <hyperlink ref="M10" r:id="rId18"/>
+    <hyperlink ref="L11" r:id="rId19"/>
+    <hyperlink ref="M11" r:id="rId20"/>
+    <hyperlink ref="L12" r:id="rId21"/>
+    <hyperlink ref="M12" r:id="rId22"/>
+    <hyperlink ref="L13" r:id="rId23"/>
+    <hyperlink ref="M13" r:id="rId24"/>
+    <hyperlink ref="L14" r:id="rId25"/>
+    <hyperlink ref="M14" r:id="rId26"/>
+    <hyperlink ref="L15" r:id="rId27"/>
+    <hyperlink ref="M15" r:id="rId28"/>
+    <hyperlink ref="L16" r:id="rId29"/>
+    <hyperlink ref="M16" r:id="rId30"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/misc/upload/books/books.xlsx
+++ b/misc/upload/books/books.xlsx
@@ -240,45 +240,12 @@
 My Friend Anger is the third of fifteen books in the series Our Emotions are Our Friends.</t>
   </si>
   <si>
-    <t>Open the world of Jealousy and help your child feel loved and valued.
-Does your child feel jealous of siblings? Does jealousy make them unhappy with themselves? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
-The book My Friend Jealousy features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
-The kind witch Ida and her friend Jealousy meet Joy. Suddenly, Jealousy speaks rudely to their mutual friend... Ida immediately realizes that Jealousy is feeling envious! What will lead to their reconciliation? Can Ida find the key to resolving Jealousy’s problem?
-Add the book to your cart and help your little one find emotional harmony today!
-My Friend Jealousy is the seventh of fifteen books in the series Our Emotions are Our Friends.</t>
-  </si>
-  <si>
-    <t>Open the world of Love and teach your child to care and show warmth.
-Are you looking for a way to explain love to your child? Do you want your little one to learn how to build kind and caring relationships? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
-The book My Friend Love features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
-The kind witch Ida and her friend Love set off on an exciting adventure to uncover the mystery of love. They meet a couple in love, a magician who passionately loves his work, and a sunset that inspires warm feelings… But what is love, really?
-Add the book to your cart and help your little one find emotional harmony today!
-My Friend Love is the sixth of fifteen books in the series Our Emotions are Our Friends.</t>
-  </si>
-  <si>
-    <t>Open the world of Envy and teach your child to recognize their own worth.
-Does your child envy others' toys or achievements? Does envy lead to conflicts with other children? We have the solution! Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
-The book My Friend Envy features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
-The kind witch Ida notices that her friend Envy is angry at a fast dog and tries to imitate it. Ida immediately understands that Envy is overwhelmed with jealousy, but he is not ready to admit it. Can the friends help Envy understand what he truly wants? And will Envy discover his unique ability? You will find out soon!
-Add the book to your cart and help your little one find emotional harmony today!
-My Friend Envy is the fifth of fifteen books in the series Our Emotions are Our Friends.</t>
-  </si>
-  <si>
     <t>Open the world of Fear and help your child feel secure.
 Does your child feel anxious when meeting new people? Afraid of the dark? Do you want to help them better understand their emotions? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
 The book My Friend Fear features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
 The kind witch Ida and her friend Fear set off on a journey to explore the depths of his fears. Along the way, they face various situations where each step is a challenge... Can Ida help Fear overcome his inner barriers? And what unexpected discoveries await them?
 Add the book to your cart and help your little one find emotional harmony today!
 My Friend Fear is the fourth of fifteen books in the series Our Emotions are Our Friends.</t>
-  </si>
-  <si>
-    <t>Open the world of Resentment and teach your child to find words in difficult moments.
-Does your child struggle to connect with others due to resentment, leading to isolation and conflicts? Looking for ways to teach your child healthy emotional expression?
-Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
-The book My Friend Resentment includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-The kind witch Ida and her friend Resentment set off on a journey to a mysterious hut, hoping to meet an old sorceress. But tension hangs between them—Resentment seems to be avoiding conversation on purpose... What happened to Resentment? Will the friends be able to restore harmony and continue their adventure?
-Add this book to your cart and help your little one find emotional balance today!
-My Friend Resentment is the eighth of fifteen books in the series Our Emotions are Our Friends.</t>
   </si>
   <si>
     <t>Open the world of Guilt and teach your child to acknowledge mistakes without self-judgment.
@@ -327,23 +294,55 @@
 My Friend Helplessness is the thirteenth of fifteen books in the series Our Emotions are Our Friends.</t>
   </si>
   <si>
+    <t>Open the world of Boredom and teach your child to find inspiration in every day.
+Constant boredom can lead to apathy, dissatisfaction, and even depression.
+Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
+The book My Friend Boredom includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida stumbled upon her friend Boredom, wandering from tree to tree, engulfed in a deep sense of monotony. Without hesitation, she invited him to play a unique game—finding four places where boredom disappears. Will Boredom overcome his state and turn dullness into an exciting adventure?
+Add this book to your cart and help your little one find emotional balance today!
+My Friend Boredom is the fifteenth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
     <t>Open the world of Shyness and teach your child to feel confident.
 Does your child avoid social interactions and making new friends? Shyness can prevent children from trying new things and learning from mistakes, limiting their personal and intellectual growth.
 Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
 The book My Friend Shyness includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-While walking with her friend Shyness, the kind witch Ida suggested they join Joy. But Shyness, blushing deeply, hid his face in his hands—new acquaintances made him terribly nervous. Meanwhile, Joy was already approaching…
-Will Ida help Shyness feel safe? And will Joy and Shyness find common ground?
+While walking with her friend Shyness, the kind witch Ida suggested they join Joy. But Shyness, blushing deeply, hid his face in his hands—new acquaintances made him terribly nervous. Meanwhile, Joy was already approaching… Will Ida help Shyness feel safe? And will Joy and Shyness find common ground?
 Add this book to your cart and help your little one find emotional balance today!
 My Friend Shyness is the fourteenth of fifteen books in the series Our Emotions are Our Friends.</t>
   </si>
   <si>
-    <t>Open the world of Boredom and teach your child to find inspiration in every day.
-Constant boredom can lead to apathy, dissatisfaction, and even depression.
+    <t>Open the world of Envy and teach your child to recognize their own worth.
+Does your child envy others' toys or achievements? Does envy lead to conflicts with other children? We have the solution! Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Envy features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida notices that her friend Envy is angry at the fast dog and tries to imitate it. Ida immediately realizes that Envy is filled with envy, but he isn’t ready to admit it. Will the friends be able to help Envy understand what he truly wants? And will Envy discover his unique ability? You will find out soon!
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Envy is the fifth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Love and teach your child to care and show warmth.
+Are you looking for a way to explain love to your child? Do you want your little one to learn how to build kind and caring relationships? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Love features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Love set off on an exciting adventure to uncover the mystery of love. They meet a couple in love, a magician who loves his work with all his heart, and a sunset that inspires warm feelings… But what is love, really?
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Love is the sixth of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Jealousy and help your child feel loved and valued.
+Does your child feel jealous of siblings? Does jealousy make them unhappy with themselves? Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your child the opportunity to understand emotions from the very beginning of life!
+The book My Friend Jealousy features a practical guide for parents and a unique author-designed game, developed based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Jealousy met Joy. Suddenly, Jealousy was rude to their mutual friend… Ida immediately realized that Jealousy was feeling jealous! What will lead to the friends’ reconciliation? Will Ida be able to find the key to resolving Jealousy’s problem? You will find out soon!
+Add the book to your cart and help your little one find emotional harmony today!
+My Friend Jealousy is the seventh of fifteen books in the series Our Emotions are Our Friends.</t>
+  </si>
+  <si>
+    <t>Open the world of Resentment and teach your child to find words in difficult moments.
+Does your child struggle to connect with others due to resentment, leading to isolation and conflicts? Looking for ways to teach your child healthy emotional expression?
 Our illustrated books will be your reliable companions on the journey to emotional harmony! Give your little one the gift of understanding emotions from an early age!
-The book My Friend Boredom includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
-The kind witch Boredom stumbled upon her friend Boredom, wandering from tree to tree, engulfed in a deep sense of monotony. Without hesitation, she invited him to play a unique game—finding four places where boredom disappears. Will Boredom overcome his state and turn dullness into an exciting adventure?
+The book My Friend Resentment includes a practical guide for parents and a unique, author-designed game based on my 10 years of experience as a child psychologist.
+The kind witch Ida and her friend Resentment set off on a journey to a mysterious hut, hoping to meet an old witch. But tension hangs between them—Resentment seems to be avoiding conversation on purpose... What happened to Resentment? Will the friends be able to restore harmony and continue their adventure?
 Add this book to your cart and help your little one find emotional balance today!
-My Friend Boredom is the fifteenth of fifteen books in the series Our Emotions are Our Friends.</t>
+My Friend Resentment is the eighth of fifteen books in the series Our Emotions are Our Friends.</t>
   </si>
 </sst>
 </file>
@@ -704,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7">
         <v>45689</v>
@@ -971,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" s="7">
         <v>45717</v>
@@ -1018,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E7" s="7">
         <v>45748</v>
@@ -1065,7 +1064,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7">
         <v>45778</v>
@@ -1112,7 +1111,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E9" s="7">
         <v>45809</v>
@@ -1159,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="7">
         <v>45870</v>
@@ -1206,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="7">
         <v>45839</v>
@@ -1253,7 +1252,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E12" s="7">
         <v>45901</v>
@@ -1300,7 +1299,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="7">
         <v>45992</v>
@@ -1347,7 +1346,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E14" s="7">
         <v>45931</v>
@@ -1394,7 +1393,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E15" s="7">
         <v>45962</v>
@@ -1441,7 +1440,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E16" s="7">
         <v>46023</v>
